--- a/tests/Data/Disks/Local/columns.xlsx
+++ b/tests/Data/Disks/Local/columns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbrouwers/Sites/Laravel-Excel/tests/Data/Disks/Local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA2817F-A3A9-5B4F-BBC5-C29C6E89F8BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8506AF6-4939-B548-BC9B-4AA12915AE9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="5440" windowWidth="28040" windowHeight="17360" xr2:uid="{9FAEE0A4-B96F-8C4A-A061-1FE6C0099E00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>boolean</t>
   </si>
@@ -109,6 +109,9 @@
   <si>
     <t>normal text</t>
   </si>
+  <si>
+    <t>percentage</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="d/mm/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +132,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,18 +163,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08980B65-310C-2A41-BFED-28C1AC962E6A}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,7 +501,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +526,11 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -537,8 +553,11 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -552,7 +571,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -563,7 +582,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -571,22 +590,22 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
